--- a/ecosysem/db/Excels/DeltaG0f.xlsx
+++ b/ecosysem/db/Excels/DeltaG0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E320F1D-EC8E-4959-B8F4-796B4FCADFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AC8F5-248F-4AB9-BDF2-0B9737844A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaG" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
   <si>
     <t>IUPAC</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sulfur (rhombic)</t>
   </si>
 </sst>
 </file>
@@ -688,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,6 +1425,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ecosysem/db/Excels/DeltaG0f.xlsx
+++ b/ecosysem/db/Excels/DeltaG0f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AC8F5-248F-4AB9-BDF2-0B9737844A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279E88F-8562-4D0F-8AED-88A7D855FC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -699,8 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/DeltaG0f.xlsx
+++ b/ecosysem/db/Excels/DeltaG0f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279E88F-8562-4D0F-8AED-88A7D855FC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17E5A3-555D-4535-8C27-9956B0135B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>IUPAC</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Sulfur (rhombic)</t>
+  </si>
+  <si>
+    <t>Speight2005</t>
+  </si>
+  <si>
+    <t>Asm.</t>
   </si>
 </sst>
 </file>
@@ -697,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,27 +845,27 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3">
-        <v>-237.18</v>
+        <v>-228.61</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3">
-        <v>-50.75</v>
+        <v>-237.18</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -873,10 +879,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3">
-        <v>-50.79</v>
+        <v>-50.75</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -884,16 +890,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>-50.79</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -907,30 +913,30 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3">
-        <v>104.8</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3">
-        <v>104.18</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,30 +947,30 @@
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3">
-        <v>104.2</v>
+        <v>104.18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3">
-        <v>-16.399999999999999</v>
+        <v>104.2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,27 +981,27 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3">
-        <v>-26.57</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="3">
-        <v>-79.37</v>
+        <v>-26.57</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
@@ -1003,16 +1009,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3">
-        <v>86.6</v>
+        <v>-79.37</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
@@ -1026,30 +1032,30 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3">
-        <v>-33.56</v>
+        <v>86.5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1060,10 +1066,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3">
-        <v>-27.87</v>
+        <v>-33.56</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
@@ -1071,16 +1077,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="3">
-        <v>12.05</v>
+        <v>-27.87</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
@@ -1088,16 +1094,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="3">
-        <v>85.6</v>
+        <v>12.05</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -1105,16 +1111,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="3">
-        <v>-537.89499999999998</v>
+        <v>85.6</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>17</v>
@@ -1122,16 +1128,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="3">
-        <v>-527.80999999999995</v>
+        <v>-537.89499999999998</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
@@ -1139,16 +1145,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="3">
-        <v>-486.6</v>
+        <v>-527.80999999999995</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
@@ -1156,50 +1162,50 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="3">
-        <v>-690</v>
+        <v>-486.6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="3">
-        <v>-756.01</v>
+        <v>-690</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="3">
-        <v>-744.67</v>
+        <v>-756.01</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
@@ -1207,50 +1213,50 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="3">
-        <v>-389</v>
+        <v>-744.67</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="3">
-        <v>-369.41</v>
+        <v>-389</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="3">
-        <v>-623.16</v>
+        <v>-369.41</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
@@ -1258,16 +1264,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="3">
-        <v>-586.85</v>
+        <v>-623.16</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>17</v>
@@ -1275,16 +1281,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="3">
-        <v>-527.9</v>
+        <v>-586.85</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>17</v>
@@ -1292,33 +1298,33 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="3">
-        <v>-50.6</v>
+        <v>-527.9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="3">
-        <v>-32.200000000000003</v>
+        <v>-50.6</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>65</v>
@@ -1326,16 +1332,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="3">
-        <v>-111.25</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>65</v>
@@ -1343,16 +1349,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="3">
-        <v>-108.74</v>
+        <v>-111.25</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>65</v>
@@ -1360,53 +1366,53 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="3">
-        <v>-157.29300000000001</v>
+        <v>-108.74</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>-157.29300000000001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="3">
-        <v>-300.19400000000002</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3">
-        <v>-300.70800000000003</v>
+        <v>-300.19400000000002</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1428,18 +1434,69 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-300.70800000000003</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/ecosysem/db/Excels/DeltaG0f.xlsx
+++ b/ecosysem/db/Excels/DeltaG0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17E5A3-555D-4535-8C27-9956B0135B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE8431C-612A-4460-AECF-A64B7D47B0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaG" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
   <si>
     <t>IUPAC</t>
   </si>
@@ -703,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,27 +1321,27 @@
         <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3">
-        <v>-50.6</v>
+        <v>-46</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="3">
-        <v>-32.200000000000003</v>
+        <v>-50.6</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>65</v>
@@ -1349,16 +1349,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="3">
-        <v>-111.25</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>65</v>
@@ -1366,67 +1366,67 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="3">
-        <v>-108.74</v>
+        <v>-73.540000000000006</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="3">
-        <v>-157.29300000000001</v>
+        <v>-111.25</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>-108.74</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="3">
-        <v>-300.19400000000002</v>
+        <v>-157.29300000000001</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1434,53 +1434,53 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="3">
-        <v>-300.70800000000003</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>-300.19400000000002</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>-300.70800000000003</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,12 +1491,46 @@
         <v>74</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/ecosysem/db/Excels/DeltaG0f.xlsx
+++ b/ecosysem/db/Excels/DeltaG0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE8431C-612A-4460-AECF-A64B7D47B0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7595FA81-11F7-46AB-A970-08D1D41B650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="11460" yWindow="1500" windowWidth="11088" windowHeight="9372" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaG" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
   <si>
     <t>IUPAC</t>
   </si>
@@ -212,9 +212,6 @@
     <t>CH3COO-</t>
   </si>
   <si>
-    <t xml:space="preserve"> CH3COOH</t>
-  </si>
-  <si>
     <t>Acetic acid</t>
   </si>
   <si>
@@ -299,7 +296,43 @@
     <t>Speight2005</t>
   </si>
   <si>
-    <t>Asm.</t>
+    <t>Formic acid</t>
+  </si>
+  <si>
+    <t>Formate</t>
+  </si>
+  <si>
+    <t>HCOO-</t>
+  </si>
+  <si>
+    <t>HCOOH</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Glycine anion</t>
+  </si>
+  <si>
+    <t>Gucker1940</t>
+  </si>
+  <si>
+    <t>NH2CH2COOH</t>
+  </si>
+  <si>
+    <t>NH2CH2COO-</t>
+  </si>
+  <si>
+    <t>CH3COOH</t>
+  </si>
+  <si>
+    <t>Amend2001</t>
+  </si>
+  <si>
+    <t>Dinitrogen</t>
+  </si>
+  <si>
+    <t>N2</t>
   </si>
 </sst>
 </file>
@@ -343,13 +376,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,17 +739,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -743,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3">
         <v>-137.15</v>
@@ -760,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3">
         <v>-119</v>
@@ -777,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3">
         <v>-394.35899999999998</v>
@@ -794,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3">
         <v>-386.02</v>
@@ -811,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -828,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3">
         <v>16.399999999999999</v>
@@ -845,13 +882,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3">
         <v>-228.61</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>-237.18</v>
@@ -879,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3">
         <v>-50.75</v>
@@ -896,13 +933,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-50.79</v>
+        <v>69</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-34.46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -930,13 +967,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>17.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3">
         <v>104.18</v>
@@ -964,7 +1001,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3">
         <v>104.2</v>
@@ -981,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3">
         <v>-16.399999999999999</v>
@@ -998,7 +1035,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3">
         <v>-26.57</v>
@@ -1015,7 +1052,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
         <v>-79.37</v>
@@ -1032,7 +1069,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
         <v>86.6</v>
@@ -1049,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3">
         <v>86.5</v>
@@ -1066,7 +1103,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3">
         <v>-33.56</v>
@@ -1083,7 +1120,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3">
         <v>-27.87</v>
@@ -1100,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3">
         <v>12.05</v>
@@ -1117,7 +1154,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3">
         <v>85.6</v>
@@ -1134,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3">
         <v>-537.89499999999998</v>
@@ -1151,7 +1188,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3">
         <v>-527.80999999999995</v>
@@ -1168,7 +1205,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3">
         <v>-486.6</v>
@@ -1185,7 +1222,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3">
         <v>-690</v>
@@ -1202,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3">
         <v>-756.01</v>
@@ -1219,7 +1256,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3">
         <v>-744.67</v>
@@ -1233,30 +1270,30 @@
         <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3">
-        <v>-389</v>
+        <v>-623.16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3">
-        <v>-369.41</v>
+        <v>-586.85</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
@@ -1264,16 +1301,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3">
-        <v>-623.16</v>
+        <v>-527.9</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>17</v>
@@ -1281,19 +1318,19 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="3">
-        <v>-586.85</v>
+        <v>-46</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,50 +1338,50 @@
         <v>56</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3">
-        <v>-527.9</v>
+        <v>-50.6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3">
-        <v>-46</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="3">
-        <v>-50.6</v>
+        <v>-73.540000000000006</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,81 +1389,81 @@
         <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="3">
-        <v>-32.200000000000003</v>
+        <v>-111.25</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3">
-        <v>-73.540000000000006</v>
+        <v>-108.74</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="3">
-        <v>-111.25</v>
+        <v>-157.29300000000001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3">
-        <v>-108.74</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D42" s="3">
-        <v>-157.29300000000001</v>
+        <v>-300.19400000000002</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1434,64 +1471,64 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>-300.70800000000003</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3">
-        <v>-300.19400000000002</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="3">
-        <v>-300.70800000000003</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -1502,36 +1539,121 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-361.4</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>-351</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-372.59</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-315</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-396.48</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-369.41</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ecosysem/db/Excels/DeltaG0f.xlsx
+++ b/ecosysem/db/Excels/DeltaG0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7595FA81-11F7-46AB-A970-08D1D41B650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C92760-58BB-4302-A283-ED107AA80035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="1500" windowWidth="11088" windowHeight="9372" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaG" sheetId="1" r:id="rId1"/>
@@ -376,16 +376,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,8 +739,8 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,7 +932,7 @@
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>-34.46</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1548,7 +1545,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="3">
-        <v>-361.4</v>
+        <v>-424.7</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>76</v>
